--- a/bank statement generator/bank_statements/statement_123.xlsx
+++ b/bank statement generator/bank_statements/statement_123.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 04.09.2025</t>
+          <t>KONTOSTAND AM 13.10.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,98 +759,146 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>08.09.</t>
+          <t>17.10.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>09.09.</t>
+          <t>18.10.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>EBAY MKTPLC EU QDEOEE</t>
+          <t>ZALANDO MKTPLC EU WEPUFB</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>84,20-</t>
+          <t>116,35-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>10.09.</t>
+          <t>21.10.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>11.09.</t>
+          <t>22.10.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Scheinfeld</t>
+          <t>KARTENZ./21.10 LIDL RO</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>16,21-</t>
+          <t>26,80-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>14.09.</t>
+          <t>23.10.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>15.09.</t>
+          <t>24.10.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>ZALANDO MKTPLC EU HNTYNG</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>26,23-</t>
+          <t>135,28-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="13" t="n"/>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>25.10.</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>26.10.</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>KARTENZ./25.10 ALDI SUED RO</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>121,23-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>29.10.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>30.10.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>BEITRAG Allianz SE K-99783751</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>56,40-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
-      <c r="D11" s="8" t="n"/>
-      <c r="E11" s="12" t="n"/>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>02.11.</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>03.11.</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+        </is>
+      </c>
+      <c r="E11" s="17" t="inlineStr">
+        <is>
+          <t>51,02-</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="27.75" customHeight="1">
       <c r="B12" s="8" t="n"/>
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 17.09.2025</t>
+          <t>KONTOSTAND AM 07.11.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>126,64-</t>
+          <t>507,08-</t>
         </is>
       </c>
     </row>
@@ -858,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 22.09.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 16.11.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
